--- a/fhir/ig/mpi/StructureDefinition-Ocupacion.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-Ocupacion.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T11:09:02-03:00</t>
+    <t>2023-10-06T15:57:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/mpi/StructureDefinition-Ocupacion.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-Ocupacion.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/StructureDefinition/Ocupacion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/StructureDefinition/Ocupacion</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T15:57:40-03:00</t>
+    <t>2023-10-12T17:29:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
@@ -499,7 +499,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSTipoObservacion</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSTipoObservacion</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1084,7 +1084,7 @@
     <t>Observation.value[x].coding</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/ValueSet/VSOcupacionesDet</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/ValueSet/VSOcupacionesDet</t>
   </si>
   <si>
     <t>Observation.value[x]:valueCodeableConcept.coding.id</t>
@@ -1993,7 +1993,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>

--- a/fhir/ig/mpi/StructureDefinition-Ocupacion.xlsx
+++ b/fhir/ig/mpi/StructureDefinition-Ocupacion.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:29:20-03:00</t>
+    <t>2023-10-18T10:23:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
